--- a/Jogos_do_Dia/2023-11-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -857,10 +857,10 @@
         <v>3.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -972,10 +972,10 @@
         <v>2.08</v>
       </c>
       <c r="K4" t="n">
-        <v>3.02</v>
+        <v>2.78</v>
       </c>
       <c r="L4" t="n">
-        <v>2.79</v>
+        <v>3.13</v>
       </c>
       <c r="M4" t="n">
         <v>1.5</v>
@@ -996,10 +996,10 @@
         <v>2.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
         <v>1.93</v>
@@ -1108,13 +1108,13 @@
         <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.55</v>
@@ -1129,16 +1129,16 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.44</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.47</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
       <c r="K6" t="n">
-        <v>3.43</v>
+        <v>3.26</v>
       </c>
       <c r="L6" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-11-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,13 +830,13 @@
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.4</v>
@@ -857,10 +857,10 @@
         <v>3.3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -969,13 +969,13 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.5</v>
@@ -990,10 +990,10 @@
         <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S4" t="n">
         <v>2.35</v>
@@ -1108,13 +1108,13 @@
         <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.55</v>
@@ -1129,16 +1129,16 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
         <v>2.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.07</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.26</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
